--- a/Информация о проходах/Утрясов Андрей Игоревич.xlsx
+++ b/Информация о проходах/Утрясов Андрей Игоревич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,49 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2024-06-20 13:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Утрясов Андрей Игоревич</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Водитель погрузчика</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Водители</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2024-05-31 14:16:35</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-06-20 13:33:26</t>
         </is>
       </c>
     </row>
